--- a/prem_xG_data.xlsx
+++ b/prem_xG_data.xlsx
@@ -495,25 +495,25 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>16.93294976186007</v>
+        <v>19.77618871536106</v>
       </c>
       <c r="D2">
-        <v>7.413862255401909</v>
+        <v>8.179915050975978</v>
       </c>
       <c r="E2">
-        <v>9.519087506458163</v>
+        <v>11.59627366438508</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="H2">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="I2">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -524,25 +524,25 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>8.194168036803603</v>
+        <v>8.85135504975915</v>
       </c>
       <c r="D3">
-        <v>10.9625787306577</v>
+        <v>11.18392453156412</v>
       </c>
       <c r="E3">
-        <v>-2.768410693854094</v>
+        <v>-2.332569481804967</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>-0.35</v>
+        <v>-0.26</v>
       </c>
       <c r="H3">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="I3">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -553,25 +553,25 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>4.111059528775513</v>
+        <v>5.26944185141474</v>
       </c>
       <c r="D4">
-        <v>14.34889679122716</v>
+        <v>15.53014700021595</v>
       </c>
       <c r="E4">
-        <v>-10.23783726245165</v>
+        <v>-10.26070514880121</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>-1.28</v>
+        <v>-1.14</v>
       </c>
       <c r="H4">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
       <c r="I4">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -582,25 +582,25 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>12.39963313192129</v>
+        <v>13.53429490327835</v>
       </c>
       <c r="D5">
-        <v>10.72905262000859</v>
+        <v>13.17659800127149</v>
       </c>
       <c r="E5">
-        <v>1.670580511912704</v>
+        <v>0.3576969020068645</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="H5">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="I5">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -611,25 +611,25 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>13.65697867330164</v>
+        <v>14.55671343486756</v>
       </c>
       <c r="D6">
-        <v>7.91563240531832</v>
+        <v>8.687273229472339</v>
       </c>
       <c r="E6">
-        <v>5.741346267983317</v>
+        <v>5.869440205395222</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="H6">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="I6">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -640,25 +640,25 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>9.7276655677706</v>
+        <v>12.15858967229724</v>
       </c>
       <c r="D7">
-        <v>10.31474016327411</v>
+        <v>11.06318909581751</v>
       </c>
       <c r="E7">
-        <v>-0.587074595503509</v>
+        <v>1.095400576479733</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>-0.08</v>
+        <v>0.14</v>
       </c>
       <c r="H7">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="I7">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -669,25 +669,25 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>8.752717768773437</v>
+        <v>10.40465918648988</v>
       </c>
       <c r="D8">
-        <v>12.85280942264944</v>
+        <v>13.95453136879951</v>
       </c>
       <c r="E8">
-        <v>-4.100091653876007</v>
+        <v>-3.549872182309628</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>-0.59</v>
+        <v>-0.44</v>
       </c>
       <c r="H8">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="I8">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -698,25 +698,25 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>10.09006020613015</v>
+        <v>10.45590461138636</v>
       </c>
       <c r="D9">
-        <v>13.13190275896341</v>
+        <v>14.95802269596606</v>
       </c>
       <c r="E9">
-        <v>-3.041842552833259</v>
+        <v>-4.502118084579706</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>-0.38</v>
+        <v>-0.5</v>
       </c>
       <c r="H9">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="I9">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -727,25 +727,25 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>9.843346958979964</v>
+        <v>10.39319531805813</v>
       </c>
       <c r="D10">
-        <v>18.85768383089453</v>
+        <v>22.57782649341971</v>
       </c>
       <c r="E10">
-        <v>-9.014336871914566</v>
+        <v>-12.18463117536157</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>-1.13</v>
+        <v>-1.35</v>
       </c>
       <c r="H10">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="I10">
-        <v>2.36</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -756,25 +756,25 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>9.857185141183436</v>
+        <v>10.9589070873335</v>
       </c>
       <c r="D11">
-        <v>10.72839197237045</v>
+        <v>12.38033339008689</v>
       </c>
       <c r="E11">
-        <v>-0.8712068311870098</v>
+        <v>-1.421426302753389</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>-0.12</v>
+        <v>-0.18</v>
       </c>
       <c r="H11">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="I11">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -785,25 +785,25 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>7.880564360879362</v>
+        <v>9.061814569868147</v>
       </c>
       <c r="D12">
-        <v>14.03441863320768</v>
+        <v>15.19280095584691</v>
       </c>
       <c r="E12">
-        <v>-6.153854272328317</v>
+        <v>-6.130986385978758</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>-0.77</v>
+        <v>-0.68</v>
       </c>
       <c r="H12">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="I12">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -814,25 +814,25 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>16.38782724831253</v>
+        <v>17.1538800438866</v>
       </c>
       <c r="D13">
-        <v>9.552494553849101</v>
+        <v>12.39573350735009</v>
       </c>
       <c r="E13">
-        <v>6.835332694463432</v>
+        <v>4.758146536536515</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>0.98</v>
+        <v>0.59</v>
       </c>
       <c r="H13">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="I13">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -843,25 +843,25 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>20.64912068750709</v>
+        <v>23.390645198524</v>
       </c>
       <c r="D14">
-        <v>5.768747902475297</v>
+        <v>5.871203957125545</v>
       </c>
       <c r="E14">
-        <v>14.8803727850318</v>
+        <v>17.51944124139845</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="H14">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I14">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -872,25 +872,25 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>11.37320657540113</v>
+        <v>13.19932651240379</v>
       </c>
       <c r="D15">
-        <v>11.12498675752431</v>
+        <v>11.49083116278052</v>
       </c>
       <c r="E15">
-        <v>0.2482198178768158</v>
+        <v>1.708495349623263</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>0.04</v>
+        <v>0.21</v>
       </c>
       <c r="H15">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="I15">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -901,25 +901,25 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>16.61572719737887</v>
+        <v>19.06327257864177</v>
       </c>
       <c r="D16">
-        <v>11.00624403730035</v>
+        <v>12.14090580865741</v>
       </c>
       <c r="E16">
-        <v>5.609483160078526</v>
+        <v>6.922366769984365</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="H16">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I16">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -930,25 +930,25 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>8.753608878701925</v>
+        <v>8.974954679608345</v>
       </c>
       <c r="D17">
-        <v>15.19399586552754</v>
+        <v>15.85118287848309</v>
       </c>
       <c r="E17">
-        <v>-6.440386986825615</v>
+        <v>-6.876228198874742</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>-0.8100000000000001</v>
+        <v>-0.76</v>
       </c>
       <c r="H17">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -959,25 +959,25 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>9.267025736160576</v>
+        <v>9.369481790810823</v>
       </c>
       <c r="D18">
-        <v>12.06238595861942</v>
+        <v>14.80391046963632</v>
       </c>
       <c r="E18">
-        <v>-2.795360222458839</v>
+        <v>-5.434428678825498</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>-0.35</v>
+        <v>-0.6</v>
       </c>
       <c r="H18">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="I18">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -988,25 +988,25 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>14.3836221578531</v>
+        <v>15.15526298200712</v>
       </c>
       <c r="D19">
-        <v>9.703817483969033</v>
+        <v>10.60355224553496</v>
       </c>
       <c r="E19">
-        <v>4.679804673884064</v>
+        <v>4.55171073647216</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="H19">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="I19">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1017,25 +1017,25 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>8.086448658257723</v>
+        <v>11.8065913207829</v>
       </c>
       <c r="D20">
-        <v>9.194279436022043</v>
+        <v>9.744127795100212</v>
       </c>
       <c r="E20">
-        <v>-1.10783077776432</v>
+        <v>2.062463525682688</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>-0.14</v>
+        <v>0.23</v>
       </c>
       <c r="H20">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="I20">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1046,25 +1046,25 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>7.417689811438322</v>
+        <v>8.166138743981719</v>
       </c>
       <c r="D21">
-        <v>9.483684508129954</v>
+        <v>11.91460861265659</v>
       </c>
       <c r="E21">
-        <v>-2.065994696691632</v>
+        <v>-3.748469868674874</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21">
-        <v>-0.26</v>
+        <v>-0.42</v>
       </c>
       <c r="H21">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="I21">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/prem_xG_data.xlsx
+++ b/prem_xG_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>team</t>
   </si>
@@ -40,64 +40,82 @@
     <t>avg_xGA</t>
   </si>
   <si>
+    <t>non_pen_xG</t>
+  </si>
+  <si>
+    <t>non_pen_xGA</t>
+  </si>
+  <si>
+    <t>non_pen_xg_difference</t>
+  </si>
+  <si>
+    <t>avg_non_pen_xG_diff</t>
+  </si>
+  <si>
+    <t>avg_non_pen_xG_for</t>
+  </si>
+  <si>
+    <t>avg_non_pen_xGA</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
     <t>Arsenal</t>
   </si>
   <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
     <t>Aston Villa</t>
   </si>
   <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
     <t>Bournemouth</t>
   </si>
   <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
     <t>Fulham</t>
-  </si>
-  <si>
-    <t>Leeds</t>
-  </si>
-  <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Manchester City</t>
-  </si>
-  <si>
-    <t>Manchester United</t>
-  </si>
-  <si>
-    <t>Newcastle United</t>
-  </si>
-  <si>
-    <t>Nottingham Forest</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Tottenham</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Wolverhampton Wanderers</t>
   </si>
 </sst>
 </file>
@@ -455,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,585 +504,963 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>19.77618871536106</v>
+        <v>24.3021384133026</v>
       </c>
       <c r="D2">
-        <v>8.179915050975978</v>
+        <v>7.871375156566501</v>
       </c>
       <c r="E2">
-        <v>11.59627366438508</v>
+        <v>16.4307632567361</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>1.29</v>
+        <v>1.64</v>
       </c>
       <c r="H2">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="I2">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.79</v>
+      </c>
+      <c r="J2">
+        <v>23.5409695757553</v>
+      </c>
+      <c r="K2">
+        <v>7.110206319019198</v>
+      </c>
+      <c r="L2">
+        <v>16.4307632567361</v>
+      </c>
+      <c r="M2">
+        <v>1.64</v>
+      </c>
+      <c r="N2">
+        <v>2.35</v>
+      </c>
+      <c r="O2">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>8.85135504975915</v>
+        <v>20.59794578049332</v>
       </c>
       <c r="D3">
-        <v>11.18392453156412</v>
+        <v>10.20223559439182</v>
       </c>
       <c r="E3">
-        <v>-2.332569481804967</v>
+        <v>10.3957101861015</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>-0.26</v>
+        <v>1.04</v>
       </c>
       <c r="H3">
-        <v>0.98</v>
+        <v>2.06</v>
       </c>
       <c r="I3">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>1.02</v>
+      </c>
+      <c r="J3">
+        <v>19.83677694294602</v>
+      </c>
+      <c r="K3">
+        <v>8.679897919297218</v>
+      </c>
+      <c r="L3">
+        <v>11.1568790236488</v>
+      </c>
+      <c r="M3">
+        <v>1.12</v>
+      </c>
+      <c r="N3">
+        <v>1.98</v>
+      </c>
+      <c r="O3">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>5.26944185141474</v>
+        <v>18.89465807843953</v>
       </c>
       <c r="D4">
-        <v>15.53014700021595</v>
+        <v>10.78864137269557</v>
       </c>
       <c r="E4">
-        <v>-10.26070514880121</v>
+        <v>8.106016705743968</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>-1.14</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H4">
-        <v>0.59</v>
+        <v>1.89</v>
       </c>
       <c r="I4">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>1.08</v>
+      </c>
+      <c r="J4">
+        <v>16.61115156579763</v>
+      </c>
+      <c r="K4">
+        <v>10.02747253514826</v>
+      </c>
+      <c r="L4">
+        <v>6.583679030649364</v>
+      </c>
+      <c r="M4">
+        <v>0.66</v>
+      </c>
+      <c r="N4">
+        <v>1.66</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>13.53429490327835</v>
+        <v>17.65459706773981</v>
       </c>
       <c r="D5">
-        <v>13.17659800127149</v>
+        <v>11.16359163168818</v>
       </c>
       <c r="E5">
-        <v>0.3576969020068645</v>
+        <v>6.491005436051637</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>0.04</v>
+        <v>0.65</v>
       </c>
       <c r="H5">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="I5">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>1.12</v>
+      </c>
+      <c r="J5">
+        <v>15.37109055509791</v>
+      </c>
+      <c r="K5">
+        <v>10.40242279414088</v>
+      </c>
+      <c r="L5">
+        <v>4.968667760957032</v>
+      </c>
+      <c r="M5">
+        <v>0.5</v>
+      </c>
+      <c r="N5">
+        <v>1.54</v>
+      </c>
+      <c r="O5">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>14.55671343486756</v>
+        <v>19.15405124332756</v>
       </c>
       <c r="D6">
-        <v>8.687273229472339</v>
+        <v>13.30722672212869</v>
       </c>
       <c r="E6">
-        <v>5.869440205395222</v>
+        <v>5.846824521198869</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="H6">
-        <v>1.82</v>
+        <v>2.13</v>
       </c>
       <c r="I6">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>1.48</v>
+      </c>
+      <c r="J6">
+        <v>19.15405124332756</v>
+      </c>
+      <c r="K6">
+        <v>11.78488904703408</v>
+      </c>
+      <c r="L6">
+        <v>7.369162196293473</v>
+      </c>
+      <c r="M6">
+        <v>0.82</v>
+      </c>
+      <c r="N6">
+        <v>2.13</v>
+      </c>
+      <c r="O6">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>12.15858967229724</v>
+        <v>19.86396551690996</v>
       </c>
       <c r="D7">
-        <v>11.06318909581751</v>
+        <v>13.55696096923202</v>
       </c>
       <c r="E7">
-        <v>1.095400576479733</v>
+        <v>6.307004547677934</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>0.14</v>
+        <v>0.63</v>
       </c>
       <c r="H7">
-        <v>1.52</v>
+        <v>1.99</v>
       </c>
       <c r="I7">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>1.36</v>
+      </c>
+      <c r="J7">
+        <v>19.10279667936265</v>
+      </c>
+      <c r="K7">
+        <v>12.79579213168472</v>
+      </c>
+      <c r="L7">
+        <v>6.307004547677934</v>
+      </c>
+      <c r="M7">
+        <v>0.63</v>
+      </c>
+      <c r="N7">
+        <v>1.91</v>
+      </c>
+      <c r="O7">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>10.40465918648988</v>
+        <v>13.53502282127738</v>
       </c>
       <c r="D8">
-        <v>13.95453136879951</v>
+        <v>10.27297987043858</v>
       </c>
       <c r="E8">
-        <v>-3.549872182309628</v>
+        <v>3.262042950838804</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>-0.44</v>
+        <v>0.33</v>
       </c>
       <c r="H8">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="I8">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>1.03</v>
+      </c>
+      <c r="J8">
+        <v>12.01268514618278</v>
+      </c>
+      <c r="K8">
+        <v>8.750642195343971</v>
+      </c>
+      <c r="L8">
+        <v>3.262042950838804</v>
+      </c>
+      <c r="M8">
+        <v>0.33</v>
+      </c>
+      <c r="N8">
+        <v>1.2</v>
+      </c>
+      <c r="O8">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>10.45590461138636</v>
+        <v>14.6153816729784</v>
       </c>
       <c r="D9">
-        <v>14.95802269596606</v>
+        <v>12.29152410104871</v>
       </c>
       <c r="E9">
-        <v>-4.502118084579706</v>
+        <v>2.323857571929693</v>
       </c>
       <c r="F9">
         <v>9</v>
       </c>
       <c r="G9">
-        <v>-0.5</v>
+        <v>0.26</v>
       </c>
       <c r="H9">
-        <v>1.16</v>
+        <v>1.62</v>
       </c>
       <c r="I9">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>1.37</v>
+      </c>
+      <c r="J9">
+        <v>13.8542128354311</v>
+      </c>
+      <c r="K9">
+        <v>12.29152410104871</v>
+      </c>
+      <c r="L9">
+        <v>1.562688734382391</v>
+      </c>
+      <c r="M9">
+        <v>0.17</v>
+      </c>
+      <c r="N9">
+        <v>1.54</v>
+      </c>
+      <c r="O9">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>10.39319531805813</v>
+        <v>15.44065982941538</v>
       </c>
       <c r="D10">
-        <v>22.57782649341971</v>
+        <v>15.34273230656981</v>
       </c>
       <c r="E10">
-        <v>-12.18463117536157</v>
+        <v>0.09792752284556627</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>-1.35</v>
+        <v>0.01</v>
       </c>
       <c r="H10">
-        <v>1.15</v>
+        <v>1.54</v>
       </c>
       <c r="I10">
-        <v>2.51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>1.53</v>
+      </c>
+      <c r="J10">
+        <v>13.15715331677347</v>
+      </c>
+      <c r="K10">
+        <v>15.34273230656981</v>
+      </c>
+      <c r="L10">
+        <v>-2.18557898979634</v>
+      </c>
+      <c r="M10">
+        <v>-0.22</v>
+      </c>
+      <c r="N10">
+        <v>1.32</v>
+      </c>
+      <c r="O10">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>10.9589070873335</v>
+        <v>13.39501544460654</v>
       </c>
       <c r="D11">
-        <v>12.38033339008689</v>
+        <v>13.51228654943407</v>
       </c>
       <c r="E11">
-        <v>-1.421426302753389</v>
+        <v>-0.1172711048275232</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>-0.18</v>
+        <v>-0.01</v>
       </c>
       <c r="H11">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="I11">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>1.5</v>
+      </c>
+      <c r="J11">
+        <v>12.63384660705924</v>
+      </c>
+      <c r="K11">
+        <v>13.51228654943407</v>
+      </c>
+      <c r="L11">
+        <v>-0.8784399423748255</v>
+      </c>
+      <c r="M11">
+        <v>-0.1</v>
+      </c>
+      <c r="N11">
+        <v>1.4</v>
+      </c>
+      <c r="O11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>9.061814569868147</v>
+        <v>12.98122763074934</v>
       </c>
       <c r="D12">
-        <v>15.19280095584691</v>
+        <v>13.20209045521915</v>
       </c>
       <c r="E12">
-        <v>-6.130986385978758</v>
+        <v>-0.2208628244698048</v>
       </c>
       <c r="F12">
         <v>9</v>
       </c>
       <c r="G12">
-        <v>-0.68</v>
+        <v>-0.02</v>
       </c>
       <c r="H12">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="I12">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>1.47</v>
+      </c>
+      <c r="J12">
+        <v>12.22005879320204</v>
+      </c>
+      <c r="K12">
+        <v>12.44092161767185</v>
+      </c>
+      <c r="L12">
+        <v>-0.2208628244698048</v>
+      </c>
+      <c r="M12">
+        <v>-0.02</v>
+      </c>
+      <c r="N12">
+        <v>1.36</v>
+      </c>
+      <c r="O12">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>17.1538800438866</v>
+        <v>11.30045250337571</v>
       </c>
       <c r="D13">
-        <v>12.39573350735009</v>
+        <v>12.42035030387342</v>
       </c>
       <c r="E13">
-        <v>4.758146536536515</v>
+        <v>-1.119897800497711</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>0.59</v>
+        <v>-0.11</v>
       </c>
       <c r="H13">
-        <v>2.14</v>
+        <v>1.13</v>
       </c>
       <c r="I13">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>1.24</v>
+      </c>
+      <c r="J13">
+        <v>11.30045250337571</v>
+      </c>
+      <c r="K13">
+        <v>11.65918146632612</v>
+      </c>
+      <c r="L13">
+        <v>-0.3587289629504085</v>
+      </c>
+      <c r="M13">
+        <v>-0.04</v>
+      </c>
+      <c r="N13">
+        <v>1.13</v>
+      </c>
+      <c r="O13">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>23.390645198524</v>
+        <v>10.24765723571181</v>
       </c>
       <c r="D14">
-        <v>5.871203957125545</v>
+        <v>14.41839113179594</v>
       </c>
       <c r="E14">
-        <v>17.51944124139845</v>
+        <v>-4.17073389608413</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>1.95</v>
+        <v>-0.38</v>
       </c>
       <c r="H14">
-        <v>2.6</v>
+        <v>0.93</v>
       </c>
       <c r="I14">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>1.31</v>
+      </c>
+      <c r="J14">
+        <v>9.486488398164511</v>
+      </c>
+      <c r="K14">
+        <v>12.89605345670134</v>
+      </c>
+      <c r="L14">
+        <v>-3.409565058536828</v>
+      </c>
+      <c r="M14">
+        <v>-0.31</v>
+      </c>
+      <c r="N14">
+        <v>0.86</v>
+      </c>
+      <c r="O14">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>13.19932651240379</v>
+        <v>12.00763784348965</v>
       </c>
       <c r="D15">
-        <v>11.49083116278052</v>
+        <v>15.78579499851912</v>
       </c>
       <c r="E15">
-        <v>1.708495349623263</v>
+        <v>-3.778157155029476</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>0.21</v>
+        <v>-0.38</v>
       </c>
       <c r="H15">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="I15">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>1.58</v>
+      </c>
+      <c r="J15">
+        <v>11.24646900594234</v>
+      </c>
+      <c r="K15">
+        <v>15.78579499851912</v>
+      </c>
+      <c r="L15">
+        <v>-4.539325992576778</v>
+      </c>
+      <c r="M15">
+        <v>-0.45</v>
+      </c>
+      <c r="N15">
+        <v>1.12</v>
+      </c>
+      <c r="O15">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>19.06327257864177</v>
+        <v>10.03524096030742</v>
       </c>
       <c r="D16">
-        <v>12.14090580865741</v>
+        <v>15.53960879705846</v>
       </c>
       <c r="E16">
-        <v>6.922366769984365</v>
+        <v>-5.504367836751044</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>0.77</v>
+        <v>-0.55</v>
       </c>
       <c r="H16">
-        <v>2.12</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>1.55</v>
+      </c>
+      <c r="J16">
+        <v>9.274072122760117</v>
+      </c>
+      <c r="K16">
+        <v>14.77843995951116</v>
+      </c>
+      <c r="L16">
+        <v>-5.504367836751044</v>
+      </c>
+      <c r="M16">
+        <v>-0.55</v>
+      </c>
+      <c r="N16">
+        <v>0.93</v>
+      </c>
+      <c r="O16">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C17">
-        <v>8.974954679608345</v>
+        <v>11.01594399753958</v>
       </c>
       <c r="D17">
-        <v>15.85118287848309</v>
+        <v>17.45735678169876</v>
       </c>
       <c r="E17">
-        <v>-6.876228198874742</v>
+        <v>-6.441412784159184</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>-0.76</v>
+        <v>-0.64</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="I17">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>1.75</v>
+      </c>
+      <c r="J17">
+        <v>11.01594399753958</v>
+      </c>
+      <c r="K17">
+        <v>15.93501910660416</v>
+      </c>
+      <c r="L17">
+        <v>-4.919075109064579</v>
+      </c>
+      <c r="M17">
+        <v>-0.49</v>
+      </c>
+      <c r="N17">
+        <v>1.1</v>
+      </c>
+      <c r="O17">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18">
-        <v>9.369481790810823</v>
+        <v>9.898333866149187</v>
       </c>
       <c r="D18">
-        <v>14.80391046963632</v>
+        <v>16.5323419701308</v>
       </c>
       <c r="E18">
-        <v>-5.434428678825498</v>
+        <v>-6.634008103981614</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>-0.6</v>
+        <v>-0.66</v>
       </c>
       <c r="H18">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="I18">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>1.65</v>
+      </c>
+      <c r="J18">
+        <v>9.898333866149187</v>
+      </c>
+      <c r="K18">
+        <v>16.5323419701308</v>
+      </c>
+      <c r="L18">
+        <v>-6.634008103981614</v>
+      </c>
+      <c r="M18">
+        <v>-0.66</v>
+      </c>
+      <c r="N18">
+        <v>0.99</v>
+      </c>
+      <c r="O18">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>15.15526298200712</v>
+        <v>10.41756960004568</v>
       </c>
       <c r="D19">
-        <v>10.60355224553496</v>
+        <v>19.24667446920648</v>
       </c>
       <c r="E19">
-        <v>4.55171073647216</v>
+        <v>-8.829104869160801</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>0.51</v>
+        <v>-0.8</v>
       </c>
       <c r="H19">
-        <v>1.68</v>
+        <v>0.95</v>
       </c>
       <c r="I19">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>1.75</v>
+      </c>
+      <c r="J19">
+        <v>8.895231924951077</v>
+      </c>
+      <c r="K19">
+        <v>16.96316795656458</v>
+      </c>
+      <c r="L19">
+        <v>-8.067936031613499</v>
+      </c>
+      <c r="M19">
+        <v>-0.73</v>
+      </c>
+      <c r="N19">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O19">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>11.8065913207829</v>
+        <v>6.897733404301107</v>
       </c>
       <c r="D20">
-        <v>9.744127795100212</v>
+        <v>17.14752215147018</v>
       </c>
       <c r="E20">
-        <v>2.062463525682688</v>
+        <v>-10.24978874716908</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>0.23</v>
+        <v>-1.02</v>
       </c>
       <c r="H20">
-        <v>1.31</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I20">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>1.71</v>
+      </c>
+      <c r="J20">
+        <v>6.897733404301107</v>
+      </c>
+      <c r="K20">
+        <v>14.86401563882828</v>
+      </c>
+      <c r="L20">
+        <v>-7.966282234527171</v>
+      </c>
+      <c r="M20">
+        <v>-0.8</v>
+      </c>
+      <c r="N20">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O20">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C21">
-        <v>8.166138743981719</v>
+        <v>12.01057046931237</v>
       </c>
       <c r="D21">
-        <v>11.91460861265659</v>
+        <v>24.20611804630607</v>
       </c>
       <c r="E21">
-        <v>-3.748469868674874</v>
+        <v>-12.1955475769937</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>-0.42</v>
+        <v>-1.22</v>
       </c>
       <c r="H21">
-        <v>0.91</v>
+        <v>1.2</v>
       </c>
       <c r="I21">
-        <v>1.32</v>
+        <v>2.42</v>
+      </c>
+      <c r="J21">
+        <v>9.727063956670463</v>
+      </c>
+      <c r="K21">
+        <v>22.68378037121147</v>
+      </c>
+      <c r="L21">
+        <v>-12.95671641454101</v>
+      </c>
+      <c r="M21">
+        <v>-1.3</v>
+      </c>
+      <c r="N21">
+        <v>0.97</v>
+      </c>
+      <c r="O21">
+        <v>2.27</v>
       </c>
     </row>
   </sheetData>
